--- a/Betting_Tracker_Improved (version 1).xlsx
+++ b/Betting_Tracker_Improved (version 1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeokHyun\Desktop\Coding\Auto-Bet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CECE6F-7A7D-432C-AEDB-E1DE33C79E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D09D33E-FABD-4FC4-88AB-CC924591553B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Summary" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -149,9 +150,6 @@
     <t>Loss</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>3 Pick</t>
   </si>
   <si>
@@ -177,6 +175,15 @@
   </si>
   <si>
     <t>Card10</t>
+  </si>
+  <si>
+    <t>Card11</t>
+  </si>
+  <si>
+    <t>4 Pick</t>
+  </si>
+  <si>
+    <t>Card12</t>
   </si>
 </sst>
 </file>
@@ -267,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -283,6 +290,9 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -290,7 +300,7 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-409]#,##0.0"/>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -373,8 +383,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A1:M71" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A1:M71" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A1:M138" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A1:M138" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Card Name"/>
@@ -394,7 +404,9 @@
     <tableColumn id="13" xr3:uid="{48363793-7A34-4D53-AA62-6F21347E8D63}" name="Win Count" dataDxfId="1">
       <calculatedColumnFormula>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{03CCEEB4-5C8C-4205-97E7-D21C95F482C5}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{03CCEEB4-5C8C-4205-97E7-D21C95F482C5}" name="ROI" dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -687,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,6 +717,7 @@
     <col min="8" max="8" width="11.26953125" customWidth="1"/>
     <col min="9" max="9" width="9.26953125" customWidth="1"/>
     <col min="10" max="10" width="12.36328125" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -744,8 +757,8 @@
       <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>30</v>
+      <c r="M1" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -790,7 +803,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>5.56</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -834,7 +850,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>3.9249999999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -853,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -878,7 +897,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>3.4097222222222219</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
@@ -922,7 +944,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.7850877192982455</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -966,7 +991,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.82471264367816077</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -1010,7 +1038,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.35683760683760674</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -1054,7 +1085,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="M8" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.66564625850340131</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -1073,7 +1107,7 @@
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
@@ -1098,7 +1132,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="M9" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.38333333333333325</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -1117,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -1142,7 +1179,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.33797814207650267</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -1186,7 +1226,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.23661616161616156</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
@@ -1230,14 +1273,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.14953051643192483</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45688</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5">
         <v>0.42899999999999999</v>
@@ -1274,7 +1320,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="M13" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>7.3903508771929777E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -1293,7 +1342,7 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -1318,7 +1367,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.4036821705426355</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -1362,7 +1414,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.247048611111111</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -1406,7 +1461,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.4190251572327042</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -1425,7 +1483,7 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
@@ -1450,7 +1508,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.3100600600600598</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
@@ -1469,7 +1530,7 @@
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -1494,7 +1555,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.4432471264367814</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
@@ -1538,14 +1602,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="7"/>
+      <c r="M19" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.3422865013774103</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>45691</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="5">
         <v>0.76800000000000002</v>
@@ -1582,14 +1649,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M20" s="7"/>
+      <c r="M20" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.2493386243386242</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>45691</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5">
         <v>0.55700000000000005</v>
@@ -1626,14 +1696,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M21" s="7"/>
+      <c r="M21" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.2917302798982186</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>45691</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="5">
         <v>0.52200000000000002</v>
@@ -1670,14 +1743,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M22" s="7"/>
+      <c r="M22" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.4111519607843137</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>45691</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="5">
         <v>0.44800000000000001</v>
@@ -1714,14 +1790,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M23" s="7"/>
+      <c r="M23" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.5529550827423166</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>45691</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="5">
         <v>0.65900000000000003</v>
@@ -1758,7 +1837,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M24" s="7"/>
+      <c r="M24" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.465525114155251</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -1802,7 +1884,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="7"/>
+      <c r="M25" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.3074786324786323</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
@@ -1821,7 +1906,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -1846,7 +1931,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M26" s="7"/>
+      <c r="M26" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.2358178053830227</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
@@ -1865,7 +1953,7 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>29</v>
@@ -1890,7 +1978,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M27" s="7"/>
+      <c r="M27" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.1684738955823293</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
@@ -1909,7 +2000,7 @@
         <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>29</v>
@@ -1934,14 +2025,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M28" s="7"/>
+      <c r="M28" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.1050682261208575</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>45693</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5">
         <v>0.46700000000000003</v>
@@ -1978,14 +2072,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M29" s="7"/>
+      <c r="M29" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.0452651515151514</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>45693</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5">
         <v>0.747</v>
@@ -2022,14 +2119,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="7"/>
+      <c r="M30" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.98876611418047877</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>45693</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5">
         <v>0.36599999999999999</v>
@@ -2066,14 +2166,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M31" s="7"/>
+      <c r="M31" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.1116487455197133</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>45693</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5">
         <v>0.39200000000000002</v>
@@ -2085,7 +2188,7 @@
         <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -2110,14 +2213,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="7"/>
+      <c r="M32" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.0563699825479929</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>45693</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5">
         <v>0.29499999999999998</v>
@@ -2129,7 +2235,7 @@
         <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -2154,14 +2260,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="7"/>
+      <c r="M33" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>1.0039115646258503</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>45693</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="5">
         <v>0.45800000000000002</v>
@@ -2173,7 +2282,7 @@
         <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
         <v>29</v>
@@ -2198,7 +2307,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M34" s="7"/>
+      <c r="M34" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.9540630182421227</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
@@ -2217,7 +2329,7 @@
         <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
@@ -2242,7 +2354,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M35" s="7"/>
+      <c r="M35" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.96951026856240097</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
@@ -2286,7 +2401,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M36" s="7"/>
+      <c r="M36" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.92391975308641949</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
@@ -2305,7 +2423,7 @@
         <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>29</v>
@@ -2330,7 +2448,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M37" s="7"/>
+      <c r="M37" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.88039215686274486</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
@@ -2374,7 +2495,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M38" s="7"/>
+      <c r="M38" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.83879056047197609</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
@@ -2418,7 +2542,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="7"/>
+      <c r="M39" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.79898989898989869</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -2462,14 +2589,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="7"/>
+      <c r="M40" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.76087570621468903</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>45696</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="5">
         <v>0.45300000000000001</v>
@@ -2506,14 +2636,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M41" s="7"/>
+      <c r="M41" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.72434301521438427</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>45696</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="5">
         <v>0.21099999999999999</v>
@@ -2525,7 +2658,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -2550,14 +2683,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M42" s="7"/>
+      <c r="M42" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.71015089163237288</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>45696</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" s="5">
         <v>0.247</v>
@@ -2569,7 +2705,7 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -2594,7 +2730,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M43" s="7"/>
+      <c r="M43" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.69619047619047592</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
@@ -2638,7 +2777,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M44" s="7"/>
+      <c r="M44" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.76926666666666643</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
@@ -2682,7 +2824,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M45" s="7"/>
+      <c r="M45" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.84771241830065336</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
@@ -2726,14 +2871,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M46" s="7"/>
+      <c r="M46" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.81217948717948696</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>45698</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="5">
         <v>0.51</v>
@@ -2770,14 +2918,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M47" s="7"/>
+      <c r="M47" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.88383647798742115</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>45698</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="5">
         <v>0.44700000000000001</v>
@@ -2814,14 +2965,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M48" s="7"/>
+      <c r="M48" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.90561728395061702</v>
+      </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>45698</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" s="5">
         <v>0.36199999999999999</v>
@@ -2858,14 +3012,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="7"/>
+      <c r="M49" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.87096969696969673</v>
+      </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>45698</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" s="5">
         <v>0.39800000000000002</v>
@@ -2902,14 +3059,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M50" s="7"/>
+      <c r="M50" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.88488095238095221</v>
+      </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>45698</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51" s="5">
         <v>0.54500000000000004</v>
@@ -2946,14 +3106,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="7"/>
+      <c r="M51" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.8518128654970758</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>45698</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" s="5">
         <v>0.59899999999999998</v>
@@ -2990,14 +3153,17 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>1</v>
       </c>
-      <c r="M52" s="7"/>
+      <c r="M52" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.8840229885057469</v>
+      </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>45698</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="5">
         <v>0.48499999999999999</v>
@@ -3034,7 +3200,10 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M53" s="7"/>
+      <c r="M53" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.8520903954802258</v>
+      </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
@@ -3053,7 +3222,10 @@
         <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="G54" t="s">
+        <v>29</v>
       </c>
       <c r="H54" s="7">
         <f t="shared" si="9"/>
@@ -3075,14 +3247,36 @@
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M54" s="7"/>
+      <c r="M54" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.79136612021857899</v>
+      </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C55" s="5"/>
-      <c r="E55" s="7"/>
+      <c r="A55" s="3">
+        <v>45700</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0.432</v>
+      </c>
+      <c r="D55">
+        <v>356</v>
+      </c>
+      <c r="E55" s="7">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>29</v>
+      </c>
       <c r="H55" s="7">
         <f t="shared" ref="H55:H62" si="14">IF(G55="Win", IF(D55&gt;0, E55*D55/100, E55*100/ABS(D55)), -E55)</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" ref="I55:I62" si="15">H55+E55+I54</f>
@@ -3090,24 +3284,46 @@
       </c>
       <c r="J55" s="7">
         <f t="shared" ref="J55:J62" si="16">J54+E55</f>
-        <v>1525</v>
+        <v>1550</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" ref="K55:K62" si="17">I55-J55</f>
-        <v>1206.833333333333</v>
+        <v>1181.833333333333</v>
       </c>
       <c r="L55" s="4">
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M55" s="7"/>
+      <c r="M55" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.76247311827956965</v>
+      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C56" s="5"/>
-      <c r="E56" s="7"/>
+      <c r="A56" s="3">
+        <v>45700</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="D56">
+        <v>572</v>
+      </c>
+      <c r="E56" s="7">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>29</v>
+      </c>
       <c r="H56" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="I56" s="7">
         <f t="shared" si="15"/>
@@ -3115,24 +3331,46 @@
       </c>
       <c r="J56" s="7">
         <f t="shared" si="16"/>
-        <v>1525</v>
+        <v>1575</v>
       </c>
       <c r="K56" s="7">
         <f t="shared" si="17"/>
-        <v>1206.833333333333</v>
+        <v>1156.833333333333</v>
       </c>
       <c r="L56" s="4">
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M56" s="7"/>
+      <c r="M56" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.73449735449735432</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C57" s="5"/>
-      <c r="E57" s="7"/>
+      <c r="A57" s="3">
+        <v>45700</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D57">
+        <v>450</v>
+      </c>
+      <c r="E57" s="7">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>29</v>
+      </c>
       <c r="H57" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="I57" s="7">
         <f t="shared" si="15"/>
@@ -3140,367 +3378,3791 @@
       </c>
       <c r="J57" s="7">
         <f t="shared" si="16"/>
-        <v>1525</v>
+        <v>1600</v>
       </c>
       <c r="K57" s="7">
         <f t="shared" si="17"/>
-        <v>1206.833333333333</v>
+        <v>1131.833333333333</v>
       </c>
       <c r="L57" s="4">
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M57" s="7"/>
+      <c r="M57" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.70739583333333311</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C58" s="5"/>
-      <c r="E58" s="7"/>
+      <c r="A58" s="3">
+        <v>45700</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D58">
+        <v>375</v>
+      </c>
+      <c r="E58" s="7">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
       <c r="H58" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>93.75</v>
       </c>
       <c r="I58" s="7">
         <f t="shared" si="15"/>
-        <v>2731.833333333333</v>
+        <v>2850.583333333333</v>
       </c>
       <c r="J58" s="7">
         <f t="shared" si="16"/>
-        <v>1525</v>
+        <v>1625</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="17"/>
-        <v>1206.833333333333</v>
+        <v>1225.583333333333</v>
       </c>
       <c r="L58" s="4">
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="M58" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.75420512820512797</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C59" s="5"/>
-      <c r="E59" s="7"/>
+      <c r="A59" s="3">
+        <v>45700</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0.249</v>
+      </c>
+      <c r="D59">
+        <v>-135</v>
+      </c>
+      <c r="E59" s="7">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>29</v>
+      </c>
       <c r="H59" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="15"/>
-        <v>2731.833333333333</v>
+        <v>2850.583333333333</v>
       </c>
       <c r="J59" s="7">
         <f t="shared" si="16"/>
-        <v>1525</v>
+        <v>1650</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="17"/>
-        <v>1206.833333333333</v>
+        <v>1200.583333333333</v>
       </c>
       <c r="L59" s="4">
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M59" s="7"/>
+      <c r="M59" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.7276262626262624</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C60" s="5"/>
-      <c r="E60" s="7"/>
+      <c r="A60" s="3">
+        <v>45700</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D60">
+        <v>-112</v>
+      </c>
+      <c r="E60" s="7">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>29</v>
+      </c>
       <c r="H60" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="I60" s="7">
         <f t="shared" si="15"/>
-        <v>2731.833333333333</v>
+        <v>2850.583333333333</v>
       </c>
       <c r="J60" s="7">
         <f t="shared" si="16"/>
-        <v>1525</v>
+        <v>1675</v>
       </c>
       <c r="K60" s="7">
         <f t="shared" si="17"/>
-        <v>1206.833333333333</v>
+        <v>1175.583333333333</v>
       </c>
       <c r="L60" s="4">
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M60" s="7"/>
+      <c r="M60" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.70184079601990035</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C61" s="5"/>
-      <c r="E61" s="7"/>
+      <c r="A61" s="3">
+        <v>45700</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D61">
+        <v>402</v>
+      </c>
+      <c r="E61" s="7">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
+        <v>29</v>
+      </c>
       <c r="H61" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" si="15"/>
-        <v>2731.833333333333</v>
+        <v>2850.583333333333</v>
       </c>
       <c r="J61" s="7">
         <f t="shared" si="16"/>
-        <v>1525</v>
+        <v>1700</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="17"/>
-        <v>1206.833333333333</v>
+        <v>1150.583333333333</v>
       </c>
       <c r="L61" s="4">
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M61" s="7"/>
+      <c r="M61" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.67681372549019592</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C62" s="5"/>
-      <c r="E62" s="7"/>
+      <c r="A62" s="3">
+        <v>45700</v>
+      </c>
+      <c r="B62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D62">
+        <v>468</v>
+      </c>
+      <c r="E62" s="7">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" t="s">
+        <v>29</v>
+      </c>
       <c r="H62" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="I62" s="7">
         <f t="shared" si="15"/>
-        <v>2731.833333333333</v>
+        <v>2850.583333333333</v>
       </c>
       <c r="J62" s="7">
         <f t="shared" si="16"/>
-        <v>1525</v>
+        <v>1725</v>
       </c>
       <c r="K62" s="7">
         <f t="shared" si="17"/>
-        <v>1206.833333333333</v>
+        <v>1125.583333333333</v>
       </c>
       <c r="L62" s="4">
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M62" s="7"/>
+      <c r="M62" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.65251207729468585</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C63" s="5"/>
-      <c r="E63" s="7"/>
+      <c r="A63" s="3">
+        <v>45700</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="D63">
+        <v>317</v>
+      </c>
+      <c r="E63" s="7">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
       <c r="H63" s="7">
         <f t="shared" ref="H63:H71" si="18">IF(G63="Win", IF(D63&gt;0, E63*D63/100, E63*100/ABS(D63)), -E63)</f>
-        <v>0</v>
+        <v>79.25</v>
       </c>
       <c r="I63" s="7">
         <f t="shared" ref="I63:I71" si="19">H63+E63+I62</f>
-        <v>2731.833333333333</v>
+        <v>2954.833333333333</v>
       </c>
       <c r="J63" s="7">
         <f t="shared" ref="J63:J71" si="20">J62+E63</f>
-        <v>1525</v>
+        <v>1750</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" ref="K63:K71" si="21">I63-J63</f>
-        <v>1206.833333333333</v>
+        <v>1204.833333333333</v>
       </c>
       <c r="L63" s="4">
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M63" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="M63" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.68847619047619035</v>
+      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C64" s="5"/>
-      <c r="E64" s="7"/>
+      <c r="A64" s="3">
+        <v>45700</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D64">
+        <v>-147</v>
+      </c>
+      <c r="E64" s="7">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
       <c r="H64" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>17.006802721088434</v>
       </c>
       <c r="I64" s="7">
         <f t="shared" si="19"/>
-        <v>2731.833333333333</v>
+        <v>2996.8401360544212</v>
       </c>
       <c r="J64" s="7">
         <f t="shared" si="20"/>
-        <v>1525</v>
+        <v>1775</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="21"/>
-        <v>1206.833333333333</v>
+        <v>1221.8401360544212</v>
       </c>
       <c r="L64" s="4">
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M64" s="7"/>
-    </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C65" s="5"/>
-      <c r="E65" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="M64" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.68836064003065989</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>45701</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="D65">
+        <v>202</v>
+      </c>
+      <c r="E65" s="7">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>29</v>
+      </c>
       <c r="H65" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="I65" s="7">
         <f t="shared" si="19"/>
-        <v>2731.833333333333</v>
+        <v>2996.8401360544212</v>
       </c>
       <c r="J65" s="7">
         <f t="shared" si="20"/>
-        <v>1525</v>
+        <v>1800</v>
       </c>
       <c r="K65" s="7">
         <f t="shared" si="21"/>
-        <v>1206.833333333333</v>
+        <v>1196.8401360544212</v>
       </c>
       <c r="L65" s="4">
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M65" s="7"/>
-    </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C66" s="5"/>
-      <c r="E66" s="7"/>
+      <c r="M65" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.66491118669690064</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>45701</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="D66">
+        <v>-115</v>
+      </c>
+      <c r="E66" s="7">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>29</v>
+      </c>
       <c r="H66" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="I66" s="7">
         <f t="shared" si="19"/>
-        <v>2731.833333333333</v>
+        <v>2996.8401360544212</v>
       </c>
       <c r="J66" s="7">
         <f t="shared" si="20"/>
-        <v>1525</v>
+        <v>1825</v>
       </c>
       <c r="K66" s="7">
         <f t="shared" si="21"/>
-        <v>1206.833333333333</v>
+        <v>1171.8401360544212</v>
       </c>
       <c r="L66" s="4">
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M66" s="7"/>
-    </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C67" s="5"/>
-      <c r="E67" s="7"/>
+      <c r="M66" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.64210418413940895</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>45701</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D67">
+        <v>-115</v>
+      </c>
+      <c r="E67" s="7">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" t="s">
+        <v>29</v>
+      </c>
       <c r="H67" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="I67" s="7">
         <f t="shared" si="19"/>
-        <v>2731.833333333333</v>
+        <v>2996.8401360544212</v>
       </c>
       <c r="J67" s="7">
         <f t="shared" si="20"/>
-        <v>1525</v>
+        <v>1850</v>
       </c>
       <c r="K67" s="7">
         <f t="shared" si="21"/>
-        <v>1206.833333333333</v>
+        <v>1146.8401360544212</v>
       </c>
       <c r="L67" s="4">
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M67" s="7"/>
-    </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C68" s="5"/>
-      <c r="E68" s="7"/>
+      <c r="M67" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.61991358705644395</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>45701</v>
+      </c>
+      <c r="B68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D68">
+        <v>197</v>
+      </c>
+      <c r="E68" s="7">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
       <c r="H68" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>49.25</v>
       </c>
       <c r="I68" s="7">
         <f t="shared" si="19"/>
-        <v>2731.833333333333</v>
+        <v>3071.0901360544212</v>
       </c>
       <c r="J68" s="7">
         <f t="shared" si="20"/>
-        <v>1525</v>
+        <v>1875</v>
       </c>
       <c r="K68" s="7">
         <f t="shared" si="21"/>
-        <v>1206.833333333333</v>
+        <v>1196.0901360544212</v>
       </c>
       <c r="L68" s="4">
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M68" s="7"/>
-    </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C69" s="5"/>
-      <c r="E69" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="M68" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.63791473922902464</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
+        <v>45701</v>
+      </c>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="D69">
+        <v>196</v>
+      </c>
+      <c r="E69" s="7">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" t="s">
+        <v>29</v>
+      </c>
       <c r="H69" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="I69" s="7">
         <f t="shared" si="19"/>
-        <v>2731.833333333333</v>
+        <v>3071.0901360544212</v>
       </c>
       <c r="J69" s="7">
         <f t="shared" si="20"/>
-        <v>1525</v>
+        <v>1900</v>
       </c>
       <c r="K69" s="7">
         <f t="shared" si="21"/>
-        <v>1206.833333333333</v>
+        <v>1171.0901360544212</v>
       </c>
       <c r="L69" s="4">
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M69" s="7"/>
-    </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C70" s="5"/>
-      <c r="E70" s="7"/>
+      <c r="M69" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.61636322950232691</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>45701</v>
+      </c>
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="D70">
+        <v>-120</v>
+      </c>
+      <c r="E70" s="7">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
       <c r="H70" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="I70" s="7">
         <f t="shared" si="19"/>
-        <v>2731.833333333333</v>
+        <v>3071.0901360544212</v>
       </c>
       <c r="J70" s="7">
         <f t="shared" si="20"/>
-        <v>1525</v>
+        <v>1925</v>
       </c>
       <c r="K70" s="7">
         <f t="shared" si="21"/>
-        <v>1206.833333333333</v>
+        <v>1146.0901360544212</v>
       </c>
       <c r="L70" s="4">
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M70" s="7"/>
-    </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C71" s="5"/>
-      <c r="E71" s="7"/>
+      <c r="M70" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.59537149924904997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <v>45701</v>
+      </c>
+      <c r="B71" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D71">
+        <v>332</v>
+      </c>
+      <c r="E71" s="7">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" t="s">
+        <v>29</v>
+      </c>
       <c r="H71" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="I71" s="7">
         <f t="shared" si="19"/>
-        <v>2731.833333333333</v>
+        <v>3071.0901360544212</v>
       </c>
       <c r="J71" s="7">
         <f t="shared" si="20"/>
-        <v>1525</v>
+        <v>1935</v>
       </c>
       <c r="K71" s="7">
         <f t="shared" si="21"/>
-        <v>1206.833333333333</v>
+        <v>1136.0901360544212</v>
       </c>
       <c r="L71" s="4">
         <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
         <v>0</v>
       </c>
-      <c r="M71" s="7"/>
+      <c r="M71" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.58712668529944245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
+        <v>45701</v>
+      </c>
+      <c r="B72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="D72">
+        <v>330</v>
+      </c>
+      <c r="E72" s="7">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="7">
+        <f t="shared" ref="H72:H91" si="22">IF(G72="Win", IF(D72&gt;0, E72*D72/100, E72*100/ABS(D72)), -E72)</f>
+        <v>-10</v>
+      </c>
+      <c r="I72" s="7">
+        <f t="shared" ref="I72:I91" si="23">H72+E72+I71</f>
+        <v>3071.0901360544212</v>
+      </c>
+      <c r="J72" s="7">
+        <f t="shared" ref="J72:J91" si="24">J71+E72</f>
+        <v>1945</v>
+      </c>
+      <c r="K72" s="7">
+        <f t="shared" ref="K72:K91" si="25">I72-J72</f>
+        <v>1126.0901360544212</v>
+      </c>
+      <c r="L72" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.57896665092772304</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <v>45701</v>
+      </c>
+      <c r="B73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="D73">
+        <v>165</v>
+      </c>
+      <c r="E73" s="7">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="7">
+        <f t="shared" si="22"/>
+        <v>-10</v>
+      </c>
+      <c r="I73" s="7">
+        <f t="shared" si="23"/>
+        <v>3071.0901360544212</v>
+      </c>
+      <c r="J73" s="7">
+        <f t="shared" si="24"/>
+        <v>1955</v>
+      </c>
+      <c r="K73" s="7">
+        <f t="shared" si="25"/>
+        <v>1116.0901360544212</v>
+      </c>
+      <c r="L73" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.57089009516850187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
+        <v>45701</v>
+      </c>
+      <c r="B74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D74">
+        <v>323</v>
+      </c>
+      <c r="E74" s="7">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="7">
+        <f t="shared" si="22"/>
+        <v>-10</v>
+      </c>
+      <c r="I74" s="7">
+        <f t="shared" si="23"/>
+        <v>3071.0901360544212</v>
+      </c>
+      <c r="J74" s="7">
+        <f t="shared" si="24"/>
+        <v>1965</v>
+      </c>
+      <c r="K74" s="7">
+        <f t="shared" si="25"/>
+        <v>1106.0901360544212</v>
+      </c>
+      <c r="L74" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.56289574353914562</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
+        <v>45701</v>
+      </c>
+      <c r="B75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D75">
+        <v>518</v>
+      </c>
+      <c r="E75" s="7">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>40</v>
+      </c>
+      <c r="G75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="7">
+        <f t="shared" si="22"/>
+        <v>-10</v>
+      </c>
+      <c r="I75" s="7">
+        <f t="shared" si="23"/>
+        <v>3071.0901360544212</v>
+      </c>
+      <c r="J75" s="7">
+        <f t="shared" si="24"/>
+        <v>1975</v>
+      </c>
+      <c r="K75" s="7">
+        <f t="shared" si="25"/>
+        <v>1096.0901360544212</v>
+      </c>
+      <c r="L75" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.55498234736932717</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
+        <v>45708</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="5">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D76">
+        <v>296</v>
+      </c>
+      <c r="E76" s="7">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" s="7">
+        <f t="shared" si="22"/>
+        <v>-25</v>
+      </c>
+      <c r="I76" s="7">
+        <f t="shared" si="23"/>
+        <v>3071.0901360544212</v>
+      </c>
+      <c r="J76" s="7">
+        <f t="shared" si="24"/>
+        <v>2000</v>
+      </c>
+      <c r="K76" s="7">
+        <f t="shared" si="25"/>
+        <v>1071.0901360544212</v>
+      </c>
+      <c r="L76" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.53554506802721058</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
+        <v>45708</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="D77">
+        <v>347</v>
+      </c>
+      <c r="E77" s="7">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" s="7">
+        <f t="shared" si="22"/>
+        <v>-25</v>
+      </c>
+      <c r="I77" s="7">
+        <f t="shared" si="23"/>
+        <v>3071.0901360544212</v>
+      </c>
+      <c r="J77" s="7">
+        <f t="shared" si="24"/>
+        <v>2025</v>
+      </c>
+      <c r="K77" s="7">
+        <f t="shared" si="25"/>
+        <v>1046.0901360544212</v>
+      </c>
+      <c r="L77" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.51658772150835619</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>45708</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="D78">
+        <v>-200</v>
+      </c>
+      <c r="E78" s="7">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="7">
+        <f t="shared" si="22"/>
+        <v>12.5</v>
+      </c>
+      <c r="I78" s="7">
+        <f t="shared" si="23"/>
+        <v>3108.5901360544212</v>
+      </c>
+      <c r="J78" s="7">
+        <f t="shared" si="24"/>
+        <v>2050</v>
+      </c>
+      <c r="K78" s="7">
+        <f t="shared" si="25"/>
+        <v>1058.5901360544212</v>
+      </c>
+      <c r="L78" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M78" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.51638543222166888</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>45708</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="5">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D79">
+        <v>809</v>
+      </c>
+      <c r="E79" s="7">
+        <v>20</v>
+      </c>
+      <c r="F79" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="7">
+        <f t="shared" si="22"/>
+        <v>-20</v>
+      </c>
+      <c r="I79" s="7">
+        <f t="shared" si="23"/>
+        <v>3108.5901360544212</v>
+      </c>
+      <c r="J79" s="7">
+        <f t="shared" si="24"/>
+        <v>2070</v>
+      </c>
+      <c r="K79" s="7">
+        <f t="shared" si="25"/>
+        <v>1038.5901360544212</v>
+      </c>
+      <c r="L79" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.50173436524368176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>45708</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0.315</v>
+      </c>
+      <c r="D80">
+        <v>574</v>
+      </c>
+      <c r="E80" s="7">
+        <v>20</v>
+      </c>
+      <c r="F80" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="7">
+        <f t="shared" si="22"/>
+        <v>-20</v>
+      </c>
+      <c r="I80" s="7">
+        <f t="shared" si="23"/>
+        <v>3108.5901360544212</v>
+      </c>
+      <c r="J80" s="7">
+        <f t="shared" si="24"/>
+        <v>2090</v>
+      </c>
+      <c r="K80" s="7">
+        <f t="shared" si="25"/>
+        <v>1018.5901360544212</v>
+      </c>
+      <c r="L80" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.48736370146144559</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>45708</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="5">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="D81">
+        <v>276</v>
+      </c>
+      <c r="E81" s="7">
+        <v>20</v>
+      </c>
+      <c r="F81" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" s="7">
+        <f t="shared" si="22"/>
+        <v>-20</v>
+      </c>
+      <c r="I81" s="7">
+        <f t="shared" si="23"/>
+        <v>3108.5901360544212</v>
+      </c>
+      <c r="J81" s="7">
+        <f t="shared" si="24"/>
+        <v>2110</v>
+      </c>
+      <c r="K81" s="7">
+        <f t="shared" si="25"/>
+        <v>998.59013605442124</v>
+      </c>
+      <c r="L81" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.47326546732437025</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>45708</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0.437</v>
+      </c>
+      <c r="D82">
+        <v>216</v>
+      </c>
+      <c r="E82" s="7">
+        <v>20</v>
+      </c>
+      <c r="F82" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="7">
+        <f t="shared" si="22"/>
+        <v>43.2</v>
+      </c>
+      <c r="I82" s="7">
+        <f t="shared" si="23"/>
+        <v>3171.7901360544211</v>
+      </c>
+      <c r="J82" s="7">
+        <f t="shared" si="24"/>
+        <v>2130</v>
+      </c>
+      <c r="K82" s="7">
+        <f t="shared" si="25"/>
+        <v>1041.7901360544211</v>
+      </c>
+      <c r="L82" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M82" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.48910335026029156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>45709</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="5">
+        <v>0.505</v>
+      </c>
+      <c r="D83">
+        <v>472</v>
+      </c>
+      <c r="E83" s="7">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" s="7">
+        <f t="shared" si="22"/>
+        <v>-25</v>
+      </c>
+      <c r="I83" s="7">
+        <f t="shared" si="23"/>
+        <v>3171.7901360544211</v>
+      </c>
+      <c r="J83" s="7">
+        <f t="shared" si="24"/>
+        <v>2155</v>
+      </c>
+      <c r="K83" s="7">
+        <f t="shared" si="25"/>
+        <v>1016.7901360544211</v>
+      </c>
+      <c r="L83" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.47182836939880329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>45709</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="D84">
+        <v>240</v>
+      </c>
+      <c r="E84" s="7">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84" s="7">
+        <f t="shared" si="22"/>
+        <v>-25</v>
+      </c>
+      <c r="I84" s="7">
+        <f t="shared" si="23"/>
+        <v>3171.7901360544211</v>
+      </c>
+      <c r="J84" s="7">
+        <f t="shared" si="24"/>
+        <v>2180</v>
+      </c>
+      <c r="K84" s="7">
+        <f t="shared" si="25"/>
+        <v>991.79013605442105</v>
+      </c>
+      <c r="L84" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.45494960369468856</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <v>45709</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D85">
+        <v>147</v>
+      </c>
+      <c r="E85" s="7">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="7">
+        <f t="shared" si="22"/>
+        <v>36.75</v>
+      </c>
+      <c r="I85" s="7">
+        <f t="shared" si="23"/>
+        <v>3233.5401360544211</v>
+      </c>
+      <c r="J85" s="7">
+        <f t="shared" si="24"/>
+        <v>2205</v>
+      </c>
+      <c r="K85" s="7">
+        <f t="shared" si="25"/>
+        <v>1028.5401360544211</v>
+      </c>
+      <c r="L85" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M85" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.46645811158930661</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
+        <v>45709</v>
+      </c>
+      <c r="B86" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="D86">
+        <v>824</v>
+      </c>
+      <c r="E86" s="7">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" t="s">
+        <v>29</v>
+      </c>
+      <c r="H86" s="7">
+        <f t="shared" si="22"/>
+        <v>-10</v>
+      </c>
+      <c r="I86" s="7">
+        <f t="shared" si="23"/>
+        <v>3233.5401360544211</v>
+      </c>
+      <c r="J86" s="7">
+        <f t="shared" si="24"/>
+        <v>2215</v>
+      </c>
+      <c r="K86" s="7">
+        <f t="shared" si="25"/>
+        <v>1018.5401360544211</v>
+      </c>
+      <c r="L86" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.45983753320741355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
+        <v>45709</v>
+      </c>
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="D87">
+        <v>764</v>
+      </c>
+      <c r="E87" s="7">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" t="s">
+        <v>29</v>
+      </c>
+      <c r="H87" s="7">
+        <f t="shared" si="22"/>
+        <v>-10</v>
+      </c>
+      <c r="I87" s="7">
+        <f t="shared" si="23"/>
+        <v>3233.5401360544211</v>
+      </c>
+      <c r="J87" s="7">
+        <f t="shared" si="24"/>
+        <v>2225</v>
+      </c>
+      <c r="K87" s="7">
+        <f t="shared" si="25"/>
+        <v>1008.5401360544211</v>
+      </c>
+      <c r="L87" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.45327646564243645</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
+        <v>45709</v>
+      </c>
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="5">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="D88">
+        <v>802</v>
+      </c>
+      <c r="E88" s="7">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" s="7">
+        <f t="shared" si="22"/>
+        <v>-10</v>
+      </c>
+      <c r="I88" s="7">
+        <f t="shared" si="23"/>
+        <v>3233.5401360544211</v>
+      </c>
+      <c r="J88" s="7">
+        <f t="shared" si="24"/>
+        <v>2235</v>
+      </c>
+      <c r="K88" s="7">
+        <f t="shared" si="25"/>
+        <v>998.54013605442105</v>
+      </c>
+      <c r="L88" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.44677411009146356</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <v>45709</v>
+      </c>
+      <c r="B89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="D89">
+        <v>297</v>
+      </c>
+      <c r="E89" s="7">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="7">
+        <f t="shared" si="22"/>
+        <v>29.7</v>
+      </c>
+      <c r="I89" s="7">
+        <f t="shared" si="23"/>
+        <v>3273.2401360544209</v>
+      </c>
+      <c r="J89" s="7">
+        <f t="shared" si="24"/>
+        <v>2245</v>
+      </c>
+      <c r="K89" s="7">
+        <f t="shared" si="25"/>
+        <v>1028.2401360544209</v>
+      </c>
+      <c r="L89" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M89" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.45801342363225872</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <v>45710</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="D90">
+        <v>170</v>
+      </c>
+      <c r="E90" s="7">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" t="s">
+        <v>29</v>
+      </c>
+      <c r="H90" s="7">
+        <f t="shared" si="22"/>
+        <v>-25</v>
+      </c>
+      <c r="I90" s="7">
+        <f t="shared" si="23"/>
+        <v>3273.2401360544209</v>
+      </c>
+      <c r="J90" s="7">
+        <f t="shared" si="24"/>
+        <v>2270</v>
+      </c>
+      <c r="K90" s="7">
+        <f t="shared" si="25"/>
+        <v>1003.2401360544209</v>
+      </c>
+      <c r="L90" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.4419560070724321</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
+        <v>45710</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="D91">
+        <v>-109</v>
+      </c>
+      <c r="E91" s="7">
+        <v>25</v>
+      </c>
+      <c r="F91" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="7">
+        <f t="shared" si="22"/>
+        <v>22.935779816513762</v>
+      </c>
+      <c r="I91" s="7">
+        <f t="shared" si="23"/>
+        <v>3321.1759158709347</v>
+      </c>
+      <c r="J91" s="7">
+        <f t="shared" si="24"/>
+        <v>2295</v>
+      </c>
+      <c r="K91" s="7">
+        <f t="shared" si="25"/>
+        <v>1026.1759158709347</v>
+      </c>
+      <c r="L91" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M91" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.44713547532502601</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
+        <v>45710</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="5">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="D92">
+        <v>342</v>
+      </c>
+      <c r="E92" s="7">
+        <v>25</v>
+      </c>
+      <c r="F92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" t="s">
+        <v>29</v>
+      </c>
+      <c r="H92" s="7">
+        <f t="shared" ref="H92:H99" si="26">IF(G92="Win", IF(D92&gt;0, E92*D92/100, E92*100/ABS(D92)), -E92)</f>
+        <v>-25</v>
+      </c>
+      <c r="I92" s="7">
+        <f t="shared" ref="I92:I99" si="27">H92+E92+I91</f>
+        <v>3321.1759158709347</v>
+      </c>
+      <c r="J92" s="7">
+        <f t="shared" ref="J92:J99" si="28">J91+E92</f>
+        <v>2320</v>
+      </c>
+      <c r="K92" s="7">
+        <f t="shared" ref="K92:K99" si="29">I92-J92</f>
+        <v>1001.1759158709347</v>
+      </c>
+      <c r="L92" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.43154134304781666</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
+        <v>45711</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="5">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D93">
+        <v>633</v>
+      </c>
+      <c r="E93" s="7">
+        <v>25</v>
+      </c>
+      <c r="F93" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" t="s">
+        <v>29</v>
+      </c>
+      <c r="H93" s="7">
+        <f t="shared" si="26"/>
+        <v>-25</v>
+      </c>
+      <c r="I93" s="7">
+        <f t="shared" si="27"/>
+        <v>3321.1759158709347</v>
+      </c>
+      <c r="J93" s="7">
+        <f t="shared" si="28"/>
+        <v>2345</v>
+      </c>
+      <c r="K93" s="7">
+        <f t="shared" si="29"/>
+        <v>976.17591587093466</v>
+      </c>
+      <c r="L93" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.41627970826052652</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
+        <v>45711</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D94">
+        <v>384</v>
+      </c>
+      <c r="E94" s="7">
+        <v>25</v>
+      </c>
+      <c r="F94" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" s="7">
+        <f t="shared" si="26"/>
+        <v>-25</v>
+      </c>
+      <c r="I94" s="7">
+        <f t="shared" si="27"/>
+        <v>3321.1759158709347</v>
+      </c>
+      <c r="J94" s="7">
+        <f t="shared" si="28"/>
+        <v>2370</v>
+      </c>
+      <c r="K94" s="7">
+        <f t="shared" si="29"/>
+        <v>951.17591587093466</v>
+      </c>
+      <c r="L94" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.40134004889068975</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A95" s="3">
+        <v>45711</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="5">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="D95">
+        <v>141</v>
+      </c>
+      <c r="E95" s="7">
+        <v>25</v>
+      </c>
+      <c r="F95" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="7">
+        <f t="shared" si="26"/>
+        <v>35.25</v>
+      </c>
+      <c r="I95" s="7">
+        <f t="shared" si="27"/>
+        <v>3381.4259158709347</v>
+      </c>
+      <c r="J95" s="7">
+        <f t="shared" si="28"/>
+        <v>2395</v>
+      </c>
+      <c r="K95" s="7">
+        <f t="shared" si="29"/>
+        <v>986.42591587093466</v>
+      </c>
+      <c r="L95" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M95" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.41186885840122534</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
+        <v>45711</v>
+      </c>
+      <c r="B96" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D96">
+        <v>110</v>
+      </c>
+      <c r="E96" s="7">
+        <v>25</v>
+      </c>
+      <c r="F96" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="7">
+        <f t="shared" si="26"/>
+        <v>27.5</v>
+      </c>
+      <c r="I96" s="7">
+        <f t="shared" si="27"/>
+        <v>3433.9259158709347</v>
+      </c>
+      <c r="J96" s="7">
+        <f t="shared" si="28"/>
+        <v>2420</v>
+      </c>
+      <c r="K96" s="7">
+        <f t="shared" si="29"/>
+        <v>1013.9259158709347</v>
+      </c>
+      <c r="L96" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M96" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.41897765118633662</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
+        <v>45711</v>
+      </c>
+      <c r="B97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" s="5">
+        <v>0.308</v>
+      </c>
+      <c r="D97">
+        <v>1581</v>
+      </c>
+      <c r="E97" s="7">
+        <v>25</v>
+      </c>
+      <c r="F97" t="s">
+        <v>30</v>
+      </c>
+      <c r="G97" t="s">
+        <v>29</v>
+      </c>
+      <c r="H97" s="7">
+        <f t="shared" si="26"/>
+        <v>-25</v>
+      </c>
+      <c r="I97" s="7">
+        <f t="shared" si="27"/>
+        <v>3433.9259158709347</v>
+      </c>
+      <c r="J97" s="7">
+        <f t="shared" si="28"/>
+        <v>2445</v>
+      </c>
+      <c r="K97" s="7">
+        <f t="shared" si="29"/>
+        <v>988.92591587093466</v>
+      </c>
+      <c r="L97" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.40446867724782604</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
+        <v>45711</v>
+      </c>
+      <c r="B98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="5">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D98">
+        <v>1236</v>
+      </c>
+      <c r="E98" s="7">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G98" t="s">
+        <v>29</v>
+      </c>
+      <c r="H98" s="7">
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+      <c r="I98" s="7">
+        <f t="shared" si="27"/>
+        <v>3433.9259158709347</v>
+      </c>
+      <c r="J98" s="7">
+        <f t="shared" si="28"/>
+        <v>2455</v>
+      </c>
+      <c r="K98" s="7">
+        <f t="shared" si="29"/>
+        <v>978.92591587093466</v>
+      </c>
+      <c r="L98" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.39874782723866992</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A99" s="3">
+        <v>45711</v>
+      </c>
+      <c r="B99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D99">
+        <v>852</v>
+      </c>
+      <c r="E99" s="7">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>30</v>
+      </c>
+      <c r="G99" t="s">
+        <v>29</v>
+      </c>
+      <c r="H99" s="7">
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+      <c r="I99" s="7">
+        <f t="shared" si="27"/>
+        <v>3433.9259158709347</v>
+      </c>
+      <c r="J99" s="7">
+        <f t="shared" si="28"/>
+        <v>2465</v>
+      </c>
+      <c r="K99" s="7">
+        <f t="shared" si="29"/>
+        <v>968.92591587093466</v>
+      </c>
+      <c r="L99" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.39307339386244816</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A100" s="3">
+        <v>45711</v>
+      </c>
+      <c r="B100" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D100">
+        <v>628</v>
+      </c>
+      <c r="E100" s="7">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>30</v>
+      </c>
+      <c r="G100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H100" s="7">
+        <f t="shared" ref="H100:H107" si="30">IF(G100="Win", IF(D100&gt;0, E100*D100/100, E100*100/ABS(D100)), -E100)</f>
+        <v>-10</v>
+      </c>
+      <c r="I100" s="7">
+        <f t="shared" ref="I100:I107" si="31">H100+E100+I99</f>
+        <v>3433.9259158709347</v>
+      </c>
+      <c r="J100" s="7">
+        <f t="shared" ref="J100:J107" si="32">J99+E100</f>
+        <v>2475</v>
+      </c>
+      <c r="K100" s="7">
+        <f t="shared" ref="K100:K107" si="33">I100-J100</f>
+        <v>958.92591587093466</v>
+      </c>
+      <c r="L100" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.38744481449330692</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
+        <v>45711</v>
+      </c>
+      <c r="B101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0.441</v>
+      </c>
+      <c r="D101">
+        <v>454</v>
+      </c>
+      <c r="E101" s="7">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>30</v>
+      </c>
+      <c r="G101" t="s">
+        <v>29</v>
+      </c>
+      <c r="H101" s="7">
+        <f t="shared" si="30"/>
+        <v>-10</v>
+      </c>
+      <c r="I101" s="7">
+        <f t="shared" si="31"/>
+        <v>3433.9259158709347</v>
+      </c>
+      <c r="J101" s="7">
+        <f t="shared" si="32"/>
+        <v>2485</v>
+      </c>
+      <c r="K101" s="7">
+        <f t="shared" si="33"/>
+        <v>948.92591587093466</v>
+      </c>
+      <c r="L101" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.38186153556174435</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
+        <v>45712</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="5">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="D102">
+        <v>361</v>
+      </c>
+      <c r="E102" s="7">
+        <v>25</v>
+      </c>
+      <c r="F102" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="7">
+        <f t="shared" si="30"/>
+        <v>90.25</v>
+      </c>
+      <c r="I102" s="7">
+        <f t="shared" si="31"/>
+        <v>3549.1759158709347</v>
+      </c>
+      <c r="J102" s="7">
+        <f t="shared" si="32"/>
+        <v>2510</v>
+      </c>
+      <c r="K102" s="7">
+        <f t="shared" si="33"/>
+        <v>1039.1759158709347</v>
+      </c>
+      <c r="L102" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M102" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.41401430911192616</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
+        <v>45712</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="5">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D103">
+        <v>350</v>
+      </c>
+      <c r="E103" s="7">
+        <v>25</v>
+      </c>
+      <c r="F103" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" t="s">
+        <v>29</v>
+      </c>
+      <c r="H103" s="7">
+        <f t="shared" si="30"/>
+        <v>-25</v>
+      </c>
+      <c r="I103" s="7">
+        <f t="shared" si="31"/>
+        <v>3549.1759158709347</v>
+      </c>
+      <c r="J103" s="7">
+        <f t="shared" si="32"/>
+        <v>2535</v>
+      </c>
+      <c r="K103" s="7">
+        <f t="shared" si="33"/>
+        <v>1014.1759158709347</v>
+      </c>
+      <c r="L103" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.4000693948208815</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A104" s="3">
+        <v>45712</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="5">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="D104">
+        <v>288</v>
+      </c>
+      <c r="E104" s="7">
+        <v>25</v>
+      </c>
+      <c r="F104" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104" s="7">
+        <f t="shared" si="30"/>
+        <v>-25</v>
+      </c>
+      <c r="I104" s="7">
+        <f t="shared" si="31"/>
+        <v>3549.1759158709347</v>
+      </c>
+      <c r="J104" s="7">
+        <f t="shared" si="32"/>
+        <v>2560</v>
+      </c>
+      <c r="K104" s="7">
+        <f t="shared" si="33"/>
+        <v>989.17591587093466</v>
+      </c>
+      <c r="L104" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M104" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.38639684213708386</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A105" s="3">
+        <v>45712</v>
+      </c>
+      <c r="B105" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" s="5">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="D105">
+        <v>362</v>
+      </c>
+      <c r="E105" s="7">
+        <v>25</v>
+      </c>
+      <c r="F105" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="7">
+        <f t="shared" si="30"/>
+        <v>90.5</v>
+      </c>
+      <c r="I105" s="7">
+        <f t="shared" si="31"/>
+        <v>3664.6759158709347</v>
+      </c>
+      <c r="J105" s="7">
+        <f t="shared" si="32"/>
+        <v>2585</v>
+      </c>
+      <c r="K105" s="7">
+        <f t="shared" si="33"/>
+        <v>1079.6759158709347</v>
+      </c>
+      <c r="L105" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M105" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.41766959995007141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A106" s="3">
+        <v>45712</v>
+      </c>
+      <c r="B106" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="5">
+        <v>0.441</v>
+      </c>
+      <c r="D106">
+        <v>616</v>
+      </c>
+      <c r="E106" s="7">
+        <v>25</v>
+      </c>
+      <c r="F106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" t="s">
+        <v>29</v>
+      </c>
+      <c r="H106" s="7">
+        <f t="shared" si="30"/>
+        <v>-25</v>
+      </c>
+      <c r="I106" s="7">
+        <f t="shared" si="31"/>
+        <v>3664.6759158709347</v>
+      </c>
+      <c r="J106" s="7">
+        <f t="shared" si="32"/>
+        <v>2610</v>
+      </c>
+      <c r="K106" s="7">
+        <f t="shared" si="33"/>
+        <v>1054.6759158709347</v>
+      </c>
+      <c r="L106" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M106" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.40409038922258034</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A107" s="3">
+        <v>45712</v>
+      </c>
+      <c r="B107" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="D107">
+        <v>1623</v>
+      </c>
+      <c r="E107" s="7">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>30</v>
+      </c>
+      <c r="G107" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107" s="7">
+        <f t="shared" si="30"/>
+        <v>-10</v>
+      </c>
+      <c r="I107" s="7">
+        <f t="shared" si="31"/>
+        <v>3664.6759158709347</v>
+      </c>
+      <c r="J107" s="7">
+        <f t="shared" si="32"/>
+        <v>2620</v>
+      </c>
+      <c r="K107" s="7">
+        <f t="shared" si="33"/>
+        <v>1044.6759158709347</v>
+      </c>
+      <c r="L107" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M107" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.39873126559959338</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A108" s="3">
+        <v>45712</v>
+      </c>
+      <c r="B108" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" s="5">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="D108">
+        <v>859</v>
+      </c>
+      <c r="E108" s="7">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>30</v>
+      </c>
+      <c r="G108" t="s">
+        <v>29</v>
+      </c>
+      <c r="H108" s="7">
+        <f t="shared" ref="H108:H128" si="34">IF(G108="Win", IF(D108&gt;0, E108*D108/100, E108*100/ABS(D108)), -E108)</f>
+        <v>-10</v>
+      </c>
+      <c r="I108" s="7">
+        <f t="shared" ref="I108:I128" si="35">H108+E108+I107</f>
+        <v>3664.6759158709347</v>
+      </c>
+      <c r="J108" s="7">
+        <f t="shared" ref="J108:J128" si="36">J107+E108</f>
+        <v>2630</v>
+      </c>
+      <c r="K108" s="7">
+        <f t="shared" ref="K108:K128" si="37">I108-J108</f>
+        <v>1034.6759158709347</v>
+      </c>
+      <c r="L108" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M108" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.3934128957684162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A109" s="3">
+        <v>45713</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D109">
+        <v>927</v>
+      </c>
+      <c r="E109" s="7">
+        <v>25</v>
+      </c>
+      <c r="F109" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" s="7">
+        <f t="shared" si="34"/>
+        <v>-25</v>
+      </c>
+      <c r="I109" s="7">
+        <f t="shared" si="35"/>
+        <v>3664.6759158709347</v>
+      </c>
+      <c r="J109" s="7">
+        <f t="shared" si="36"/>
+        <v>2655</v>
+      </c>
+      <c r="K109" s="7">
+        <f t="shared" si="37"/>
+        <v>1009.6759158709347</v>
+      </c>
+      <c r="L109" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M109" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.38029224703236708</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A110" s="3">
+        <v>45713</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="5">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="D110">
+        <v>-149</v>
+      </c>
+      <c r="E110" s="7">
+        <v>25</v>
+      </c>
+      <c r="F110" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="7">
+        <f t="shared" si="34"/>
+        <v>16.778523489932887</v>
+      </c>
+      <c r="I110" s="7">
+        <f t="shared" si="35"/>
+        <v>3706.4544393608676</v>
+      </c>
+      <c r="J110" s="7">
+        <f t="shared" si="36"/>
+        <v>2680</v>
+      </c>
+      <c r="K110" s="7">
+        <f t="shared" si="37"/>
+        <v>1026.4544393608676</v>
+      </c>
+      <c r="L110" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M110" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.38300538782121923</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A111" s="3">
+        <v>45713</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D111">
+        <v>1360</v>
+      </c>
+      <c r="E111" s="7">
+        <v>25</v>
+      </c>
+      <c r="F111" t="s">
+        <v>30</v>
+      </c>
+      <c r="G111" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" s="7">
+        <f t="shared" si="34"/>
+        <v>-25</v>
+      </c>
+      <c r="I111" s="7">
+        <f t="shared" si="35"/>
+        <v>3706.4544393608676</v>
+      </c>
+      <c r="J111" s="7">
+        <f t="shared" si="36"/>
+        <v>2705</v>
+      </c>
+      <c r="K111" s="7">
+        <f t="shared" si="37"/>
+        <v>1001.4544393608676</v>
+      </c>
+      <c r="L111" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M111" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.37022345262878653</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A112" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="5">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D112">
+        <v>300</v>
+      </c>
+      <c r="E112" s="7">
+        <v>24</v>
+      </c>
+      <c r="F112" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" s="7">
+        <f t="shared" si="34"/>
+        <v>-24</v>
+      </c>
+      <c r="I112" s="7">
+        <f t="shared" si="35"/>
+        <v>3706.4544393608676</v>
+      </c>
+      <c r="J112" s="7">
+        <f t="shared" si="36"/>
+        <v>2729</v>
+      </c>
+      <c r="K112" s="7">
+        <f t="shared" si="37"/>
+        <v>977.45443936086758</v>
+      </c>
+      <c r="L112" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M112" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.3581731181241728</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A113" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="5">
+        <v>0.505</v>
+      </c>
+      <c r="D113">
+        <v>160</v>
+      </c>
+      <c r="E113" s="7">
+        <v>15.14</v>
+      </c>
+      <c r="F113" t="s">
+        <v>32</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="7">
+        <f t="shared" si="34"/>
+        <v>24.224</v>
+      </c>
+      <c r="I113" s="7">
+        <f t="shared" si="35"/>
+        <v>3745.8184393608676</v>
+      </c>
+      <c r="J113" s="7">
+        <f t="shared" si="36"/>
+        <v>2744.14</v>
+      </c>
+      <c r="K113" s="7">
+        <f t="shared" si="37"/>
+        <v>1001.6784393608677</v>
+      </c>
+      <c r="L113" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M113" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.36502453933139994</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A114" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="5">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="D114">
+        <v>120</v>
+      </c>
+      <c r="E114" s="7">
+        <v>11.73</v>
+      </c>
+      <c r="F114" t="s">
+        <v>32</v>
+      </c>
+      <c r="G114" t="s">
+        <v>29</v>
+      </c>
+      <c r="H114" s="7">
+        <f t="shared" si="34"/>
+        <v>-11.73</v>
+      </c>
+      <c r="I114" s="7">
+        <f t="shared" si="35"/>
+        <v>3745.8184393608676</v>
+      </c>
+      <c r="J114" s="7">
+        <f t="shared" si="36"/>
+        <v>2755.87</v>
+      </c>
+      <c r="K114" s="7">
+        <f t="shared" si="37"/>
+        <v>989.94843936086772</v>
+      </c>
+      <c r="L114" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M114" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.35921449101767056</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A115" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B115" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" s="5">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="D115">
+        <v>-455</v>
+      </c>
+      <c r="E115" s="7">
+        <v>13.1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>32</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="7">
+        <f t="shared" si="34"/>
+        <v>2.8791208791208791</v>
+      </c>
+      <c r="I115" s="7">
+        <f t="shared" si="35"/>
+        <v>3761.7975602399883</v>
+      </c>
+      <c r="J115" s="7">
+        <f t="shared" si="36"/>
+        <v>2768.97</v>
+      </c>
+      <c r="K115" s="7">
+        <f t="shared" si="37"/>
+        <v>992.82756023998854</v>
+      </c>
+      <c r="L115" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M115" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.35855482733290306</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A116" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B116" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" s="5">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="D116">
+        <v>-520</v>
+      </c>
+      <c r="E116" s="7">
+        <v>12.92</v>
+      </c>
+      <c r="F116" t="s">
+        <v>32</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="7">
+        <f t="shared" si="34"/>
+        <v>2.4846153846153847</v>
+      </c>
+      <c r="I116" s="7">
+        <f t="shared" si="35"/>
+        <v>3777.2021756246036</v>
+      </c>
+      <c r="J116" s="7">
+        <f t="shared" si="36"/>
+        <v>2781.89</v>
+      </c>
+      <c r="K116" s="7">
+        <f t="shared" si="37"/>
+        <v>995.3121756246037</v>
+      </c>
+      <c r="L116" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M116" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.35778272168367681</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A117" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B117" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="5">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="D117">
+        <v>-250</v>
+      </c>
+      <c r="E117" s="7">
+        <v>12.71</v>
+      </c>
+      <c r="F117" t="s">
+        <v>32</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="7">
+        <f t="shared" si="34"/>
+        <v>5.0839999999999996</v>
+      </c>
+      <c r="I117" s="7">
+        <f t="shared" si="35"/>
+        <v>3794.9961756246034</v>
+      </c>
+      <c r="J117" s="7">
+        <f t="shared" si="36"/>
+        <v>2794.6</v>
+      </c>
+      <c r="K117" s="7">
+        <f t="shared" si="37"/>
+        <v>1000.3961756246035</v>
+      </c>
+      <c r="L117" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M117" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.3579747282704514</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A118" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B118" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="5">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D118">
+        <v>-222</v>
+      </c>
+      <c r="E118" s="7">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="F118" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="7">
+        <f t="shared" si="34"/>
+        <v>7.2342342342342336</v>
+      </c>
+      <c r="I118" s="7">
+        <f t="shared" si="35"/>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J118" s="7">
+        <f t="shared" si="36"/>
+        <v>2810.66</v>
+      </c>
+      <c r="K118" s="7">
+        <f t="shared" si="37"/>
+        <v>1007.630409858838</v>
+      </c>
+      <c r="L118" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M118" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.35850313088699381</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A119" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B119" t="s">
+        <v>36</v>
+      </c>
+      <c r="C119" s="5">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="D119">
+        <v>506</v>
+      </c>
+      <c r="E119" s="7">
+        <v>21.6</v>
+      </c>
+      <c r="F119" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" t="s">
+        <v>29</v>
+      </c>
+      <c r="H119" s="7">
+        <f t="shared" si="34"/>
+        <v>-21.6</v>
+      </c>
+      <c r="I119" s="7">
+        <f t="shared" si="35"/>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J119" s="7">
+        <f t="shared" si="36"/>
+        <v>2832.2599999999998</v>
+      </c>
+      <c r="K119" s="7">
+        <f t="shared" si="37"/>
+        <v>986.03040985883808</v>
+      </c>
+      <c r="L119" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M119" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.34814261750645709</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A120" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B120" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" s="5">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D120">
+        <v>519</v>
+      </c>
+      <c r="E120" s="7">
+        <v>19.28</v>
+      </c>
+      <c r="F120" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120" s="7">
+        <f t="shared" si="34"/>
+        <v>-19.28</v>
+      </c>
+      <c r="I120" s="7">
+        <f t="shared" si="35"/>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J120" s="7">
+        <f t="shared" si="36"/>
+        <v>2851.54</v>
+      </c>
+      <c r="K120" s="7">
+        <f t="shared" si="37"/>
+        <v>966.75040985883788</v>
+      </c>
+      <c r="L120" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M120" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.33902747633167968</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A121" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B121" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" s="5">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="D121">
+        <v>481</v>
+      </c>
+      <c r="E121" s="7">
+        <v>21.6</v>
+      </c>
+      <c r="F121" t="s">
+        <v>30</v>
+      </c>
+      <c r="G121" t="s">
+        <v>29</v>
+      </c>
+      <c r="H121" s="7">
+        <f t="shared" si="34"/>
+        <v>-21.6</v>
+      </c>
+      <c r="I121" s="7">
+        <f t="shared" si="35"/>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J121" s="7">
+        <f t="shared" si="36"/>
+        <v>2873.14</v>
+      </c>
+      <c r="K121" s="7">
+        <f t="shared" si="37"/>
+        <v>945.15040985883797</v>
+      </c>
+      <c r="L121" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M121" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.32896079197631789</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A122" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B122" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="D122">
+        <v>1627</v>
+      </c>
+      <c r="E122" s="7">
+        <v>21.6</v>
+      </c>
+      <c r="F122" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" t="s">
+        <v>29</v>
+      </c>
+      <c r="H122" s="7">
+        <f t="shared" si="34"/>
+        <v>-21.6</v>
+      </c>
+      <c r="I122" s="7">
+        <f t="shared" si="35"/>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J122" s="7">
+        <f t="shared" si="36"/>
+        <v>2894.74</v>
+      </c>
+      <c r="K122" s="7">
+        <f t="shared" si="37"/>
+        <v>923.55040985883807</v>
+      </c>
+      <c r="L122" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M122" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.31904433899377427</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A123" s="3">
+        <v>45714</v>
+      </c>
+      <c r="B123" t="s">
+        <v>41</v>
+      </c>
+      <c r="C123" s="5">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D123">
+        <v>267</v>
+      </c>
+      <c r="E123" s="7">
+        <v>11.92</v>
+      </c>
+      <c r="F123" t="s">
+        <v>30</v>
+      </c>
+      <c r="G123" t="s">
+        <v>29</v>
+      </c>
+      <c r="H123" s="7">
+        <f>IF(G123="Win", IF(D123&gt;0, E123*D123/100, E123*100/ABS(D123)), -E123)</f>
+        <v>-11.92</v>
+      </c>
+      <c r="I123" s="7">
+        <f>H123+E123+I122</f>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J123" s="7">
+        <f>J122+E123</f>
+        <v>2906.66</v>
+      </c>
+      <c r="K123" s="7">
+        <f t="shared" si="37"/>
+        <v>911.63040985883799</v>
+      </c>
+      <c r="L123" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M123" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.31363503466481735</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A124" s="3">
+        <v>45715</v>
+      </c>
+      <c r="B124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="5">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="D124">
+        <v>-162</v>
+      </c>
+      <c r="E124" s="7">
+        <v>25</v>
+      </c>
+      <c r="F124" t="s">
+        <v>32</v>
+      </c>
+      <c r="G124" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" s="7">
+        <f>IF(G124="Win", IF(D124&gt;0, E124*D124/100, E124*100/ABS(D124)), -E124)</f>
+        <v>-25</v>
+      </c>
+      <c r="I124" s="7">
+        <f>H124+E124+I123</f>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J124" s="7">
+        <f>J123+E124</f>
+        <v>2931.66</v>
+      </c>
+      <c r="K124" s="7">
+        <f t="shared" si="37"/>
+        <v>886.63040985883799</v>
+      </c>
+      <c r="L124" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M124" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.30243289121481959</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A125" s="3">
+        <v>45715</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="5">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="D125">
+        <v>-340</v>
+      </c>
+      <c r="E125" s="7">
+        <v>25</v>
+      </c>
+      <c r="F125" t="s">
+        <v>32</v>
+      </c>
+      <c r="G125" t="s">
+        <v>29</v>
+      </c>
+      <c r="H125" s="7">
+        <f t="shared" si="34"/>
+        <v>-25</v>
+      </c>
+      <c r="I125" s="7">
+        <f t="shared" si="35"/>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J125" s="7">
+        <f t="shared" si="36"/>
+        <v>2956.66</v>
+      </c>
+      <c r="K125" s="7">
+        <f t="shared" si="37"/>
+        <v>861.63040985883799</v>
+      </c>
+      <c r="L125" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M125" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.29142018691998339</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A126" s="3">
+        <v>45715</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="5">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="D126">
+        <v>120</v>
+      </c>
+      <c r="E126" s="7">
+        <v>25</v>
+      </c>
+      <c r="F126" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" t="s">
+        <v>29</v>
+      </c>
+      <c r="H126" s="7">
+        <f t="shared" si="34"/>
+        <v>-25</v>
+      </c>
+      <c r="I126" s="7">
+        <f t="shared" si="35"/>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J126" s="7">
+        <f t="shared" si="36"/>
+        <v>2981.66</v>
+      </c>
+      <c r="K126" s="7">
+        <f t="shared" si="37"/>
+        <v>836.63040985883799</v>
+      </c>
+      <c r="L126" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M126" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.2805921566707264</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A127" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="5">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="D127">
+        <v>270</v>
+      </c>
+      <c r="E127" s="7">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s">
+        <v>32</v>
+      </c>
+      <c r="H127" s="7">
+        <f t="shared" si="34"/>
+        <v>-10</v>
+      </c>
+      <c r="I127" s="7">
+        <f t="shared" si="35"/>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J127" s="7">
+        <f t="shared" si="36"/>
+        <v>2991.66</v>
+      </c>
+      <c r="K127" s="7">
+        <f t="shared" si="37"/>
+        <v>826.63040985883799</v>
+      </c>
+      <c r="L127" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M127" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.27631161624611017</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A128" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="5">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="D128">
+        <v>-135</v>
+      </c>
+      <c r="E128" s="7">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="F128" t="s">
+        <v>32</v>
+      </c>
+      <c r="H128" s="7">
+        <f t="shared" si="34"/>
+        <v>-16.670000000000002</v>
+      </c>
+      <c r="I128" s="7">
+        <f t="shared" si="35"/>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J128" s="7">
+        <f t="shared" si="36"/>
+        <v>3008.33</v>
+      </c>
+      <c r="K128" s="7">
+        <f t="shared" si="37"/>
+        <v>809.96040985883792</v>
+      </c>
+      <c r="L128" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M128" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.26923921573060067</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A129" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="5">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="D129">
+        <v>154</v>
+      </c>
+      <c r="E129" s="7">
+        <v>15.02</v>
+      </c>
+      <c r="F129" t="s">
+        <v>32</v>
+      </c>
+      <c r="H129" s="7">
+        <f t="shared" ref="H129:H138" si="38">IF(G129="Win", IF(D129&gt;0, E129*D129/100, E129*100/ABS(D129)), -E129)</f>
+        <v>-15.02</v>
+      </c>
+      <c r="I129" s="7">
+        <f t="shared" ref="I129:I138" si="39">H129+E129+I128</f>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J129" s="7">
+        <f t="shared" ref="J129:J138" si="40">J128+E129</f>
+        <v>3023.35</v>
+      </c>
+      <c r="K129" s="7">
+        <f t="shared" ref="K129:K138" si="41">I129-J129</f>
+        <v>794.94040985883794</v>
+      </c>
+      <c r="L129" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M129" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.26293363648232521</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A130" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B130" t="s">
+        <v>31</v>
+      </c>
+      <c r="C130" s="5">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D130">
+        <v>145</v>
+      </c>
+      <c r="E130" s="7">
+        <v>13.27</v>
+      </c>
+      <c r="F130" t="s">
+        <v>32</v>
+      </c>
+      <c r="H130" s="7">
+        <f t="shared" si="38"/>
+        <v>-13.27</v>
+      </c>
+      <c r="I130" s="7">
+        <f t="shared" si="39"/>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J130" s="7">
+        <f t="shared" si="40"/>
+        <v>3036.62</v>
+      </c>
+      <c r="K130" s="7">
+        <f t="shared" si="41"/>
+        <v>781.67040985883796</v>
+      </c>
+      <c r="L130" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M130" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.25741462871839016</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A131" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B131" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" s="5">
+        <v>0.627</v>
+      </c>
+      <c r="D131">
+        <v>-125</v>
+      </c>
+      <c r="E131" s="7">
+        <v>11.08</v>
+      </c>
+      <c r="F131" t="s">
+        <v>32</v>
+      </c>
+      <c r="H131" s="7">
+        <f t="shared" si="38"/>
+        <v>-11.08</v>
+      </c>
+      <c r="I131" s="7">
+        <f t="shared" si="39"/>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J131" s="7">
+        <f t="shared" si="40"/>
+        <v>3047.7</v>
+      </c>
+      <c r="K131" s="7">
+        <f t="shared" si="41"/>
+        <v>770.59040985883803</v>
+      </c>
+      <c r="L131" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M131" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.25284326208578212</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A132" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B132" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" s="5">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="D132">
+        <v>110</v>
+      </c>
+      <c r="E132" s="7">
+        <v>10</v>
+      </c>
+      <c r="F132" t="s">
+        <v>32</v>
+      </c>
+      <c r="H132" s="7">
+        <f t="shared" si="38"/>
+        <v>-10</v>
+      </c>
+      <c r="I132" s="7">
+        <f t="shared" si="39"/>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J132" s="7">
+        <f t="shared" si="40"/>
+        <v>3057.7</v>
+      </c>
+      <c r="K132" s="7">
+        <f t="shared" si="41"/>
+        <v>760.59040985883803</v>
+      </c>
+      <c r="L132" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M132" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.24874592336031595</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A133" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B133" t="s">
+        <v>35</v>
+      </c>
+      <c r="C133" s="5">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="D133">
+        <v>235</v>
+      </c>
+      <c r="E133" s="7">
+        <v>21.6</v>
+      </c>
+      <c r="F133" t="s">
+        <v>22</v>
+      </c>
+      <c r="H133" s="7">
+        <f t="shared" si="38"/>
+        <v>-21.6</v>
+      </c>
+      <c r="I133" s="7">
+        <f t="shared" si="39"/>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J133" s="7">
+        <f t="shared" si="40"/>
+        <v>3079.2999999999997</v>
+      </c>
+      <c r="K133" s="7">
+        <f t="shared" si="41"/>
+        <v>738.99040985883812</v>
+      </c>
+      <c r="L133" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M133" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.23998649363778721</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A134" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" s="5">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D134">
+        <v>631</v>
+      </c>
+      <c r="E134" s="7">
+        <v>10</v>
+      </c>
+      <c r="F134" t="s">
+        <v>22</v>
+      </c>
+      <c r="H134" s="7">
+        <f t="shared" si="38"/>
+        <v>-10</v>
+      </c>
+      <c r="I134" s="7">
+        <f t="shared" si="39"/>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J134" s="7">
+        <f t="shared" si="40"/>
+        <v>3089.2999999999997</v>
+      </c>
+      <c r="K134" s="7">
+        <f t="shared" si="41"/>
+        <v>728.99040985883812</v>
+      </c>
+      <c r="L134" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M134" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.23597268308640734</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A135" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B135" t="s">
+        <v>37</v>
+      </c>
+      <c r="C135" s="5">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D135">
+        <v>575</v>
+      </c>
+      <c r="E135" s="7">
+        <v>21.6</v>
+      </c>
+      <c r="F135" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" s="7">
+        <f t="shared" si="38"/>
+        <v>-21.6</v>
+      </c>
+      <c r="I135" s="7">
+        <f t="shared" si="39"/>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J135" s="7">
+        <f t="shared" si="40"/>
+        <v>3110.8999999999996</v>
+      </c>
+      <c r="K135" s="7">
+        <f t="shared" si="41"/>
+        <v>707.39040985883821</v>
+      </c>
+      <c r="L135" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M135" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.22739091898127176</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A136" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B136" t="s">
+        <v>38</v>
+      </c>
+      <c r="C136" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D136">
+        <v>1843</v>
+      </c>
+      <c r="E136" s="7">
+        <v>10</v>
+      </c>
+      <c r="F136" t="s">
+        <v>30</v>
+      </c>
+      <c r="H136" s="7">
+        <f t="shared" si="38"/>
+        <v>-10</v>
+      </c>
+      <c r="I136" s="7">
+        <f t="shared" si="39"/>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J136" s="7">
+        <f t="shared" si="40"/>
+        <v>3120.8999999999996</v>
+      </c>
+      <c r="K136" s="7">
+        <f t="shared" si="41"/>
+        <v>697.39040985883821</v>
+      </c>
+      <c r="L136" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M136" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.22345810819277717</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A137" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B137" t="s">
+        <v>39</v>
+      </c>
+      <c r="C137" s="5">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D137">
+        <v>801</v>
+      </c>
+      <c r="E137" s="7">
+        <v>18.37</v>
+      </c>
+      <c r="F137" t="s">
+        <v>30</v>
+      </c>
+      <c r="H137" s="7">
+        <f t="shared" si="38"/>
+        <v>-18.37</v>
+      </c>
+      <c r="I137" s="7">
+        <f t="shared" si="39"/>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J137" s="7">
+        <f t="shared" si="40"/>
+        <v>3139.2699999999995</v>
+      </c>
+      <c r="K137" s="7">
+        <f t="shared" si="41"/>
+        <v>679.02040985883832</v>
+      </c>
+      <c r="L137" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M137" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.21629882420398322</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A138" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B138" t="s">
+        <v>41</v>
+      </c>
+      <c r="C138" s="5">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="D138">
+        <v>678</v>
+      </c>
+      <c r="E138" s="7">
+        <v>14.24</v>
+      </c>
+      <c r="F138" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" s="7">
+        <f t="shared" si="38"/>
+        <v>-14.24</v>
+      </c>
+      <c r="I138" s="7">
+        <f t="shared" si="39"/>
+        <v>3818.2904098588378</v>
+      </c>
+      <c r="J138" s="7">
+        <f t="shared" si="40"/>
+        <v>3153.5099999999993</v>
+      </c>
+      <c r="K138" s="7">
+        <f t="shared" si="41"/>
+        <v>664.78040985883854</v>
+      </c>
+      <c r="L138" s="4">
+        <f>IF(DailyTable[[#This Row],[Result (Win/Loss)]]="Win",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M138" s="5">
+        <f>DailyTable[[#This Row],[Total Profit]]/DailyTable[[#This Row],[Investment]]</f>
+        <v>0.21080650128232944</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3515,7 +7177,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3550,19 +7212,19 @@
       </c>
       <c r="B2">
         <f>SUMIF(DailyTable[Parlay],Sheet3!A2,DailyTable[Win Count])</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <f>COUNTIF(DailyTable[Parlay],Sheet3!A2)</f>
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D2" s="10">
         <f>B2/C2</f>
-        <v>0.41666666666666669</v>
+        <v>0.34246575342465752</v>
       </c>
       <c r="E2" s="10">
         <f>AVERAGEIF(DailyTable[Parlay],Sheet3!A2,DailyTable[Win Prob (%)])</f>
-        <v>0.49447222222222226</v>
+        <v>0.48517808219178071</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3571,19 +7233,19 @@
       </c>
       <c r="B3">
         <f>SUMIF(DailyTable[Parlay],Sheet3!A3,DailyTable[Win Count])</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <f>COUNTIF(DailyTable[Parlay],Sheet3!A3)</f>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D3" s="10">
         <f>B3/C3</f>
-        <v>0.33333333333333331</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="E3" s="10">
         <f>AVERAGEIF(DailyTable[Parlay],Sheet3!A3,DailyTable[Win Prob (%)])</f>
-        <v>0.69950000000000001</v>
+        <v>0.6902272727272728</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -3592,24 +7254,24 @@
       </c>
       <c r="B4">
         <f>SUMIF(DailyTable[Parlay],Sheet3!A4,DailyTable[Win Count])</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <f>COUNTIF(DailyTable[Parlay],Sheet3!A4)</f>
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D4" s="10">
         <f>B4/C4</f>
-        <v>0.18181818181818182</v>
+        <v>0.14634146341463414</v>
       </c>
       <c r="E4" s="10">
         <f>AVERAGEIF(DailyTable[Parlay],Sheet3!A4,DailyTable[Win Prob (%)])</f>
-        <v>0.37745454545454549</v>
+        <v>0.35975609756097565</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>0</v>
+      <c r="A5" t="str">
+        <v>4 Pick</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -3635,15 +7297,15 @@
       </c>
       <c r="B13" s="7">
         <f>SUMIF(DailyTable[Parlay],Sheet3!A13,DailyTable[Wager])</f>
-        <v>1060</v>
+        <v>1945.1399999999996</v>
       </c>
       <c r="C13" s="7">
         <f>SUMIF(DailyTable[Parlay],Sheet3!A13,DailyTable[Profit])</f>
-        <v>1209</v>
+        <v>1024.6827577241675</v>
       </c>
       <c r="D13" s="9">
         <f>C13/B13</f>
-        <v>1.1405660377358491</v>
+        <v>0.52679126321198866</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -3652,15 +7314,15 @@
       </c>
       <c r="B14" s="7">
         <f>SUMIF(DailyTable[Parlay],Sheet3!A14,DailyTable[Wager])</f>
-        <v>145</v>
+        <v>410.63999999999993</v>
       </c>
       <c r="C14" s="7">
         <f>SUMIF(DailyTable[Parlay],Sheet3!A14,DailyTable[Profit])</f>
-        <v>-12.666666666666657</v>
+        <v>-141.82915058641663</v>
       </c>
       <c r="D14" s="9">
         <f>C14/B14</f>
-        <v>-8.7356321839080389E-2</v>
+        <v>-0.34538561900062503</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -3669,20 +7331,20 @@
       </c>
       <c r="B15" s="7">
         <f>SUMIF(DailyTable[Parlay],Sheet3!A15,DailyTable[Wager])</f>
-        <v>320</v>
+        <v>787.73</v>
       </c>
       <c r="C15" s="7">
         <f>SUMIF(DailyTable[Parlay],Sheet3!A15,DailyTable[Profit])</f>
-        <v>10.5</v>
+        <v>-208.07319727891155</v>
       </c>
       <c r="D15" s="9">
         <f>C15/B15</f>
-        <v>3.2812500000000001E-2</v>
+        <v>-0.26414278658793183</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>0</v>
+      <c r="A16" t="str">
+        <v>4 Pick</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -3697,7 +7359,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3720,7 +7382,7 @@
       </c>
       <c r="B2" s="8">
         <f>SUM(DailyTable[Profit])</f>
-        <v>1206.8333333333335</v>
+        <v>664.78040985883922</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3729,7 +7391,7 @@
       </c>
       <c r="B3" s="5">
         <f>AVERAGE(DailyTable[Win Prob (%)])</f>
-        <v>0.4933962264150944</v>
+        <v>0.47848175182481767</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3738,7 +7400,7 @@
       </c>
       <c r="B4" s="7">
         <f>SUM(DailyTable[Wager])</f>
-        <v>1525</v>
+        <v>3153.5099999999993</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3747,7 +7409,7 @@
       </c>
       <c r="B5" s="5">
         <f>COUNTIF(DailyTable[Result (Win/Loss)], "Win")/COUNTA(DailyTable[Result (Win/Loss)])</f>
-        <v>0.36538461538461536</v>
+        <v>0.30399999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -3756,7 +7418,7 @@
       </c>
       <c r="B6" s="5">
         <f>COUNTIF(DailyTable[Result (Win/Loss)], "Loss")/COUNTA(DailyTable[Result (Win/Loss)])</f>
-        <v>0.63461538461538458</v>
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -3765,7 +7427,7 @@
       </c>
       <c r="B7" s="7">
         <f>MAX(DailyTable[Total Balance])</f>
-        <v>2731.833333333333</v>
+        <v>3818.2904098588378</v>
       </c>
     </row>
   </sheetData>
